--- a/Whitepaper/EMISummary.xlsx
+++ b/Whitepaper/EMISummary.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Google Drive\Open HAZUS\Whitepaper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6020F-C195-4C08-A547-AB073C9E3AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="UserWorkflows" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hazus Users 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hazus Users 2" sheetId="3" r:id="rId2"/>
+    <sheet name="UserWorkflows" sheetId="2" r:id="rId3"/>
+    <sheet name="Data Characteristics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Basic Hazus</t>
   </si>
@@ -93,9 +100,6 @@
     <t>Define geographic area for analysis -&gt;
 Generate or import depth grid -&gt;
 Intersect depth grid with building/economic data</t>
-  </si>
-  <si>
-    <t>Who is using Hazus?</t>
   </si>
   <si>
     <t>Local</t>
@@ -223,9 +227,6 @@
 Vehicle Damage &amp; Loss</t>
   </si>
   <si>
-    <t>User-Defined Data Characteristics</t>
-  </si>
-  <si>
     <t>Options for Importing User-Defined Facilities (UDF)</t>
   </si>
   <si>
@@ -341,8 +342,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,27 +353,23 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -380,69 +377,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +496,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +548,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,29 +741,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="45">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -760,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -768,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -776,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -784,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -792,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -806,14 +817,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -822,56 +953,56 @@
     <col min="5" max="5" width="44" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -887,254 +1018,175 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="135">
-      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>74</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="105">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9AE72B-C96C-4A73-8E14-0C1F19B41D7B}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>